--- a/apps/gaussian_bump/3d_grid_study_mach4_turb/turb_dist_values.xlsx
+++ b/apps/gaussian_bump/3d_grid_study_mach4_turb/turb_dist_values.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/git/opensbli/apps/gaussian_bump/3d_grid_study_mach4_turb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{615AD6C5-B793-664B-86EB-8F6D4ED18F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887C820C-40A2-CA41-9C28-0AAE18A186AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="780" windowWidth="33120" windowHeight="20100" xr2:uid="{072C2875-914D-3048-B2CE-E328574CCD4D}"/>
+    <workbookView xWindow="-1600" yWindow="-20500" windowWidth="34200" windowHeight="19860" xr2:uid="{072C2875-914D-3048-B2CE-E328574CCD4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="11">
   <si>
     <t>1000x200x100</t>
   </si>
@@ -59,20 +59,38 @@
     <t>1500x300x200</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>2000x300x200</t>
+  </si>
+  <si>
+    <t>dz+</t>
+  </si>
+  <si>
+    <t>Average 300-400</t>
+  </si>
+  <si>
+    <t>Average 350-400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,6 +183,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -177,12 +201,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -519,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C5B7AA-ACF0-7B48-BA06-BE29A245AF8A}">
-  <dimension ref="A1:AP32"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AP20" sqref="AP20"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB56" sqref="AB56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,7 +554,7 @@
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C1">
         <v>300</v>
       </c>
@@ -548,491 +570,494 @@
       <c r="AE1">
         <v>400</v>
       </c>
-      <c r="AJ1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
+      <c r="AJ1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK1" s="12"/>
+      <c r="AM1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="3" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="3" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="3" t="s">
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AJ2" s="3" t="s">
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AJ2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AM2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="8"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
         <v>700</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>750</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>800</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>850</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
         <v>700</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>750</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>800</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>850</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4">
+      <c r="M3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3">
         <v>700</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>750</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>800</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>850</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4">
+      <c r="T3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3">
         <v>700</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="3">
         <v>750</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="3">
         <v>800</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="3">
         <v>850</v>
       </c>
-      <c r="AA3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4">
+      <c r="AA3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3">
         <v>700</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3" s="3">
         <v>750</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="3">
         <v>800</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AG3" s="3">
         <v>850</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AJ3" s="2"/>
-      <c r="AK3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
+      <c r="AK3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
         <v>9.0755549999999996</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>11.554729999999999</v>
       </c>
       <c r="D4" s="2">
         <v>6.9525550000000003</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>8.5864700000000003</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f>AVERAGE(B4:E4)</f>
         <v>9.0423275000000007</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="G4" s="1"/>
+      <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>8.3249890000000004</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>11.250787000000001</v>
       </c>
       <c r="K4" s="2">
         <v>7.5927870000000004</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>7.723579</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>AVERAGE(I4:L4)</f>
         <v>8.7230354999999999</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="O4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
         <v>5.6221360000000002</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>10.815175</v>
       </c>
       <c r="R4" s="2">
         <v>8.3844750000000001</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>6.9410600000000002</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <f>AVERAGE(P4:S4)</f>
         <v>7.9407115000000008</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" s="4">
+      <c r="V4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
         <v>5.2212240000000003</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="3">
         <v>10.444342000000001</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="3">
         <v>9.0079820000000002</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="3">
         <v>7.3581669999999999</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="3">
         <f>AVERAGE(W4:Z4)</f>
         <v>8.0079287500000014</v>
       </c>
-      <c r="AC4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="4">
+      <c r="AC4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
         <v>4.9277240000000004</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AE4" s="3">
         <v>6.1983620000000004</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="3">
         <v>10.977325</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AG4" s="3">
         <v>7.0136139999999996</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AH4" s="3">
         <f>AVERAGE(AD4:AG4)</f>
         <v>7.2792562500000004</v>
       </c>
       <c r="AJ4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4" s="5">
         <f>AVERAGE(F4,M4,T4,AA4,AH4)</f>
         <v>8.1986519000000015</v>
       </c>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
+      <c r="AM4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="5">
+        <f>AVERAGE(T4,AA4,AH4)</f>
+        <v>7.7426321666666675</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
         <v>0.88270700000000002</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1.1238360000000001</v>
       </c>
       <c r="D5" s="2">
         <v>0.67621900000000001</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.83513700000000002</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f>AVERAGE(B5:E5)</f>
         <v>0.87947475000000008</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="G5" s="1"/>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
         <v>0.80970500000000001</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>1.094274</v>
       </c>
       <c r="K5" s="2">
         <v>0.73848999999999998</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>0.75121099999999996</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <f>AVERAGE(I5:L5)</f>
         <v>0.84842000000000006</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="O5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3">
         <v>0.54681999999999997</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>1.051906</v>
       </c>
       <c r="R5" s="2">
         <v>0.81549099999999997</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>0.67510199999999998</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <f>AVERAGE(P5:S5)</f>
         <v>0.77232974999999993</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" s="4">
+      <c r="V5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3">
         <v>0.50782700000000003</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="3">
         <v>1.015838</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="3">
         <v>0.876135</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="3">
         <v>0.71567000000000003</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="3">
         <f>AVERAGE(W5:Z5)</f>
         <v>0.77886750000000005</v>
       </c>
-      <c r="AC5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="4">
+      <c r="AC5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="3">
         <v>0.47927999999999998</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5" s="3">
         <v>0.60286499999999998</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="3">
         <v>1.067677</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="3">
         <v>0.68215800000000004</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="3">
         <f>AVERAGE(AD5:AG5)</f>
         <v>0.70799499999999993</v>
       </c>
       <c r="AJ5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AK5" s="5">
         <f t="shared" ref="AK5:AK6" si="0">AVERAGE(F5,M5,T5,AA5,AH5)</f>
         <v>0.79741739999999994</v>
       </c>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
+      <c r="AM5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="5">
+        <f t="shared" ref="AN5:AN6" si="1">AVERAGE(T5,AA5,AH5)</f>
+        <v>0.7530640833333333</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
         <v>4.5790300000000004</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5.8298860000000001</v>
       </c>
       <c r="D6" s="2">
         <v>3.5078800000000001</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>4.3322640000000003</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f>AVERAGE(B6:E6)</f>
         <v>4.562265</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="G6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3">
         <v>4.2003349999999999</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>5.6765330000000001</v>
       </c>
       <c r="K6" s="2">
         <v>3.8309060000000001</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>3.8968970000000001</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <f>AVERAGE(I6:L6)</f>
         <v>4.4011677499999999</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="O6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="3">
         <v>2.8366229999999999</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>5.456747</v>
       </c>
       <c r="R6" s="2">
         <v>4.2303490000000004</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <v>3.5020799999999999</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <f>AVERAGE(P6:S6)</f>
         <v>4.0064497499999998</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" s="4">
+      <c r="V6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" s="3">
         <v>2.6343450000000002</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="3">
         <v>5.2696449999999997</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="3">
         <v>4.544937</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="3">
         <v>3.7125300000000001</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="3">
         <f>AVERAGE(W6:Z6)</f>
         <v>4.0403642500000005</v>
       </c>
-      <c r="AC6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="4">
+      <c r="AC6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="3">
         <v>2.4862609999999998</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE6" s="3">
         <v>3.1273550000000001</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF6" s="3">
         <v>5.5385590000000002</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="3">
         <v>3.5386869999999999</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH6" s="3">
         <f>AVERAGE(AD6:AG6)</f>
         <v>3.6727154999999998</v>
       </c>
-      <c r="AJ6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="2">
+      <c r="AJ6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK6" s="5">
         <f t="shared" si="0"/>
         <v>4.1365924500000002</v>
       </c>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
+      <c r="AM6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="5">
+        <f t="shared" si="1"/>
+        <v>3.9065098333333332</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1064,487 +1089,490 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="8"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="3" t="s">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="3" t="s">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="3" t="s">
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AJ8" s="3" t="s">
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AJ8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
+      <c r="AK8" s="13"/>
+      <c r="AM8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN8" s="13"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
         <v>700</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>750</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>850</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>750</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>850</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>750</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>850</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3">
         <v>700</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>750</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="3">
         <v>800</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="3">
         <v>850</v>
       </c>
-      <c r="AA9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3">
         <v>700</v>
       </c>
-      <c r="AE9" s="4">
+      <c r="AE9" s="3">
         <v>750</v>
       </c>
-      <c r="AF9" s="4">
+      <c r="AF9" s="3">
         <v>800</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AG9" s="3">
         <v>850</v>
       </c>
-      <c r="AH9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ9" s="2"/>
+      <c r="AH9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="5"/>
       <c r="AK9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
         <v>5.798279</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>7.5704440000000002</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>8.1272979999999997</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>4.0429959999999996</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f>AVERAGE(B10:E10)</f>
         <v>6.3847542499999994</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="1"/>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>6.4897349999999996</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>8.5786850000000001</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>8.9760799999999996</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>5.261927</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <f>AVERAGE(I10:L10)</f>
         <v>7.3266067499999998</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="O10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
         <v>7.7213849999999997</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>11.142875</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>13.275548000000001</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>6.5026760000000001</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <f>AVERAGE(P10:S10)</f>
         <v>9.6606210000000008</v>
       </c>
-      <c r="V10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="W10" s="4">
+      <c r="V10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
         <v>8.4387089999999993</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
         <v>9.5039219999999993</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="3">
         <v>14.351179</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="3">
         <v>7.6969289999999999</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10" s="3">
         <f>AVERAGE(W10:Z10)</f>
         <v>9.9976847499999995</v>
       </c>
-      <c r="AC10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="4">
+      <c r="AC10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="3">
         <v>12.107931000000001</v>
       </c>
-      <c r="AE10" s="4">
+      <c r="AE10" s="3">
         <v>7.2169160000000003</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AF10" s="3">
         <v>19.629023</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AG10" s="3">
         <v>9.6042330000000007</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AH10" s="3">
         <f>AVERAGE(AD10:AG10)</f>
         <v>12.139525750000001</v>
       </c>
       <c r="AJ10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AK10" s="5">
         <f>AVERAGE(F10,M10,T10,AA10,AH10)</f>
         <v>9.1018384999999995</v>
       </c>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
+      <c r="AM10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="5">
+        <f>AVERAGE(T10,AA10,AH10)</f>
+        <v>10.599277166666667</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
         <v>0.56395200000000001</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.736317</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.79047699999999999</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.39323000000000002</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f>AVERAGE(B11:E11)</f>
         <v>0.62099400000000005</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="G11" s="1"/>
+      <c r="H11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.63120500000000002</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.83438000000000001</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>0.87303200000000003</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>0.51178599999999996</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <f>AVERAGE(I11:L11)</f>
         <v>0.71260075000000001</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="O11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3">
         <v>0.75099700000000003</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>1.0837779999999999</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>1.291207</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <v>0.632463</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <f>AVERAGE(P11:S11)</f>
         <v>0.93961125000000001</v>
       </c>
-      <c r="V11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W11" s="4">
+      <c r="V11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="3">
         <v>0.820766</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
         <v>0.92437100000000005</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="3">
         <v>1.3958250000000001</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="3">
         <v>0.74861900000000003</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="3">
         <f>AVERAGE(W11:Z11)</f>
         <v>0.97239525000000004</v>
       </c>
-      <c r="AC11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="4">
+      <c r="AC11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="3">
         <v>1.1776420000000001</v>
       </c>
-      <c r="AE11" s="4">
+      <c r="AE11" s="3">
         <v>0.701932</v>
       </c>
-      <c r="AF11" s="4">
+      <c r="AF11" s="3">
         <v>1.9091579999999999</v>
       </c>
-      <c r="AG11" s="4">
+      <c r="AG11" s="3">
         <v>0.93412700000000004</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AH11" s="3">
         <f>AVERAGE(AD11:AG11)</f>
         <v>1.1807147499999999</v>
       </c>
       <c r="AJ11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AK11" s="2">
-        <f t="shared" ref="AK11:AK12" si="1">AVERAGE(F11,M11,T11,AA11,AH11)</f>
+      <c r="AK11" s="5">
+        <f t="shared" ref="AK11" si="2">AVERAGE(F11,M11,T11,AA11,AH11)</f>
         <v>0.88526320000000003</v>
       </c>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
+      <c r="AM11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="5">
+        <f t="shared" ref="AN11" si="3">AVERAGE(T11,AA11,AH11)</f>
+        <v>1.0309070833333334</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
         <v>1.4553970000000001</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1.9002190000000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>2.0399929999999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1.014812</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f>AVERAGE(B12:E12)</f>
         <v>1.6026052500000001</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="1"/>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3">
         <v>1.6289560000000001</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>2.1532930000000001</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>2.2530410000000001</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>1.32077</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <f>AVERAGE(I12:L12)</f>
         <v>1.8390149999999998</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P12" s="4">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3">
         <v>1.9381060000000001</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>2.7969179999999998</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>3.3322289999999999</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <v>1.632204</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <f>AVERAGE(P12:S12)</f>
         <v>2.4248642500000002</v>
       </c>
-      <c r="V12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W12" s="4">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3">
         <v>2.1181580000000002</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="3">
         <v>2.385532</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="3">
         <v>3.6022180000000001</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="3">
         <v>1.9319679999999999</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA12" s="3">
         <f>AVERAGE(W12:Z12)</f>
         <v>2.5094690000000002</v>
       </c>
-      <c r="AC12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="4">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3">
         <v>3.0391509999999999</v>
       </c>
-      <c r="AE12" s="4">
+      <c r="AE12" s="3">
         <v>1.811482</v>
       </c>
-      <c r="AF12" s="4">
+      <c r="AF12" s="3">
         <v>4.9269829999999999</v>
       </c>
-      <c r="AG12" s="4">
+      <c r="AG12" s="3">
         <v>2.410711</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AH12" s="3">
         <f>AVERAGE(AD12:AG12)</f>
         <v>3.0470817500000003</v>
       </c>
-      <c r="AJ12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK12" s="2">
-        <f t="shared" si="1"/>
+      <c r="AJ12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK12" s="5">
+        <f>AVERAGE(F12,M12,T12,AA12,AH12)</f>
         <v>2.2846070500000004</v>
       </c>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="8"/>
+      <c r="AM12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN12" s="5">
+        <f>AVERAGE(T12,AA12,AH12)</f>
+        <v>2.6604716666666666</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1576,487 +1604,490 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="3" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="3" t="s">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="3" t="s">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="5" t="s">
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="7"/>
-      <c r="AJ14" s="3" t="s">
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="11"/>
+      <c r="AJ14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
+      <c r="AK14" s="13"/>
+      <c r="AM14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="13"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
         <v>700</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>750</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>800</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>850</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>750</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>850</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>750</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>800</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>850</v>
       </c>
-      <c r="T15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3">
         <v>700</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="3">
         <v>750</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="3">
         <v>800</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15" s="3">
         <v>850</v>
       </c>
-      <c r="AA15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4">
+      <c r="AA15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3">
         <v>700</v>
       </c>
-      <c r="AE15" s="4">
+      <c r="AE15" s="3">
         <v>750</v>
       </c>
-      <c r="AF15" s="4">
+      <c r="AF15" s="3">
         <v>800</v>
       </c>
-      <c r="AG15" s="4">
+      <c r="AG15" s="3">
         <v>850</v>
       </c>
-      <c r="AH15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ15" s="2"/>
+      <c r="AH15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="5"/>
       <c r="AK15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="8"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
         <v>9.0822590000000005</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>8.3484379999999998</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>6.6934889999999996</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>7.1983930000000003</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f>AVERAGE(B16:E16)</f>
         <v>7.8306447500000003</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="G16" s="1"/>
+      <c r="H16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
         <v>15.250131</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>13.057174</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>8.0395500000000002</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>8.4449480000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <f>AVERAGE(I16:L16)</f>
         <v>11.19795075</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="O16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
         <v>6.6248740000000002</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>16.326070999999999</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>10.493162</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>12.189848</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <f>AVERAGE(P16:S16)</f>
         <v>11.408488749999998</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="W16" s="4">
+      <c r="V16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
         <v>7.6104019999999997</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="3">
         <v>11.395160000000001</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="3">
         <v>11.988854999999999</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="3">
         <v>14.147231</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA16" s="3">
         <f>AVERAGE(W16:Z16)</f>
         <v>11.285411999999999</v>
       </c>
-      <c r="AC16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="4">
+      <c r="AC16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="3">
         <v>13.684488</v>
       </c>
-      <c r="AE16" s="4">
+      <c r="AE16" s="3">
         <v>13.6722</v>
       </c>
-      <c r="AF16" s="4">
+      <c r="AF16" s="3">
         <v>12.598011</v>
       </c>
-      <c r="AG16" s="4">
+      <c r="AG16" s="3">
         <v>14.99104</v>
       </c>
-      <c r="AH16" s="4">
+      <c r="AH16" s="3">
         <f>AVERAGE(AD16:AG16)</f>
         <v>13.736434749999999</v>
       </c>
       <c r="AJ16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AK16" s="2">
+      <c r="AK16" s="5">
         <f>AVERAGE(F16,M16,T16,AA16,AH16)</f>
         <v>11.0917862</v>
       </c>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="8"/>
+      <c r="AM16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="5">
+        <f>AVERAGE(T16,AA16,AH16)</f>
+        <v>12.143445166666666</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
         <v>1.32548</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1.2183850000000001</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0.97685900000000003</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>1.050546</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" ref="F17" si="2">AVERAGE(B17:E17)</f>
+      <c r="F17" s="3">
+        <f t="shared" ref="F17" si="4">AVERAGE(B17:E17)</f>
         <v>1.1428175</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="1"/>
+      <c r="H17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
         <v>2.2256300000000002</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>1.905586</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>1.173306</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>1.23247</v>
       </c>
-      <c r="M17" s="4">
-        <f t="shared" ref="M17" si="3">AVERAGE(I17:L17)</f>
+      <c r="M17" s="3">
+        <f t="shared" ref="M17" si="5">AVERAGE(I17:L17)</f>
         <v>1.6342480000000001</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="4">
+      <c r="O17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="3">
         <v>0.96684499999999995</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>2.3826550000000002</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>1.53139</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>1.779007</v>
       </c>
-      <c r="T17" s="4">
-        <f t="shared" ref="T17" si="4">AVERAGE(P17:S17)</f>
+      <c r="T17" s="3">
+        <f t="shared" ref="T17" si="6">AVERAGE(P17:S17)</f>
         <v>1.66497425</v>
       </c>
-      <c r="V17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W17" s="4">
+      <c r="V17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="3">
         <v>1.1106750000000001</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="3">
         <v>1.6630290000000001</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="3">
         <v>1.749674</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="3">
         <v>2.0646710000000001</v>
       </c>
-      <c r="AA17" s="4">
-        <f t="shared" ref="AA17:AA18" si="5">AVERAGE(W17:Z17)</f>
+      <c r="AA17" s="3">
+        <f t="shared" ref="AA17" si="7">AVERAGE(W17:Z17)</f>
         <v>1.64701225</v>
       </c>
-      <c r="AC17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD17" s="4">
+      <c r="AC17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="3">
         <v>1.9971369999999999</v>
       </c>
-      <c r="AE17" s="4">
+      <c r="AE17" s="3">
         <v>1.995344</v>
       </c>
-      <c r="AF17" s="4">
+      <c r="AF17" s="3">
         <v>1.8385750000000001</v>
       </c>
-      <c r="AG17" s="4">
+      <c r="AG17" s="3">
         <v>2.187818</v>
       </c>
-      <c r="AH17" s="4">
-        <f t="shared" ref="AH17" si="6">AVERAGE(AD17:AG17)</f>
+      <c r="AH17" s="3">
+        <f t="shared" ref="AH17" si="8">AVERAGE(AD17:AG17)</f>
         <v>2.0047185000000001</v>
       </c>
       <c r="AJ17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AK17" s="2">
-        <f t="shared" ref="AK17:AK18" si="7">AVERAGE(F17,M17,T17,AA17,AH17)</f>
+      <c r="AK17" s="5">
+        <f t="shared" ref="AK17:AK18" si="9">AVERAGE(F17,M17,T17,AA17,AH17)</f>
         <v>1.6187541000000003</v>
       </c>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8"/>
-      <c r="AP17" s="8"/>
+      <c r="AM17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="5">
+        <f t="shared" ref="AN17:AN18" si="10">AVERAGE(T17,AA17,AH17)</f>
+        <v>1.772235</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3">
         <v>3.4206799999999999</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>3.1442990000000002</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>2.5209899999999998</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>2.7111540000000001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f>AVERAGE(B18:E18)</f>
         <v>2.9492807500000002</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="G18" s="1"/>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>5.7437050000000003</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>4.9177650000000002</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>3.0279609999999999</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>3.180647</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <f>AVERAGE(I18:L18)</f>
         <v>4.2175194999999999</v>
       </c>
-      <c r="O18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="4">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>2.4951469999999998</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>6.1489399999999996</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>3.9520729999999999</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>4.5911010000000001</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <f>AVERAGE(P18:S18)</f>
         <v>4.2968152499999999</v>
       </c>
-      <c r="V18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W18" s="4">
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="3">
         <v>2.86633</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="3">
         <v>4.2917949999999996</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="3">
         <v>4.5153999999999996</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="3">
         <v>5.3283160000000001</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AA18" s="3">
         <f>AVERAGE(W18:Z18)</f>
         <v>4.2504602499999997</v>
       </c>
-      <c r="AC18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="4">
+      <c r="AC18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD18" s="3">
         <v>5.1540319999999999</v>
       </c>
-      <c r="AE18" s="4">
+      <c r="AE18" s="3">
         <v>5.1494039999999996</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AF18" s="3">
         <v>4.7448290000000002</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AG18" s="3">
         <v>5.6461230000000002</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AH18" s="3">
         <f>AVERAGE(AD18:AG18)</f>
         <v>5.173597</v>
       </c>
-      <c r="AJ18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK18" s="2">
-        <f t="shared" si="7"/>
+      <c r="AJ18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK18" s="5">
+        <f t="shared" si="9"/>
         <v>4.1775345499999998</v>
       </c>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="8"/>
-      <c r="AO18" s="8"/>
-      <c r="AP18" s="8"/>
+      <c r="AM18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN18" s="5">
+        <f t="shared" si="10"/>
+        <v>4.5736241666666659</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2088,487 +2119,490 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="8"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="3" t="s">
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="3" t="s">
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="3" t="s">
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AJ20" s="3" t="s">
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AJ20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="8"/>
-      <c r="AP20" s="8"/>
+      <c r="AK20" s="13"/>
+      <c r="AM20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN20" s="13"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
         <v>700</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>750</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>850</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>750</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>850</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>750</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="3">
         <v>850</v>
       </c>
-      <c r="T21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3">
         <v>700</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21" s="3">
         <v>750</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y21" s="3">
         <v>800</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z21" s="3">
         <v>850</v>
       </c>
-      <c r="AA21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3">
         <v>700</v>
       </c>
-      <c r="AE21" s="4">
+      <c r="AE21" s="3">
         <v>750</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AF21" s="3">
         <v>800</v>
       </c>
-      <c r="AG21" s="4">
+      <c r="AG21" s="3">
         <v>850</v>
       </c>
-      <c r="AH21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ21" s="2"/>
+      <c r="AH21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ21" s="5"/>
       <c r="AK21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="8"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
         <v>9.7694690000000008</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>12.693389</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>5.6102410000000003</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>10.474498000000001</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <f>AVERAGE(B22:E22)</f>
         <v>9.636899249999999</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="G22" s="1"/>
+      <c r="H22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
         <v>10.065702999999999</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>13.909131</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>5.466494</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>7.0235459999999996</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <f>AVERAGE(I22:L22)</f>
         <v>9.1162185000000004</v>
       </c>
-      <c r="O22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4">
+      <c r="O22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
         <v>14.256558</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>10.000541</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="3">
         <v>8.8204980000000006</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="3">
         <v>7.8779649999999997</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="3">
         <f>AVERAGE(P22:S22)</f>
         <v>10.2388905</v>
       </c>
-      <c r="V22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="W22" s="4">
+      <c r="V22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" s="3">
         <v>13.560995999999999</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X22" s="3">
         <v>10.238885</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Y22" s="3">
         <v>13.607449000000001</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="Z22" s="3">
         <v>8.7682590000000005</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA22" s="3">
         <f>AVERAGE(W22:Z22)</f>
         <v>11.543897250000001</v>
       </c>
-      <c r="AC22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="4">
+      <c r="AC22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="3">
         <v>14.681666</v>
       </c>
-      <c r="AE22" s="4">
+      <c r="AE22" s="3">
         <v>13.705587</v>
       </c>
-      <c r="AF22" s="4">
+      <c r="AF22" s="3">
         <v>11.874402999999999</v>
       </c>
-      <c r="AG22" s="4">
+      <c r="AG22" s="3">
         <v>10.089876</v>
       </c>
-      <c r="AH22" s="4">
+      <c r="AH22" s="3">
         <f>AVERAGE(AD22:AG22)</f>
         <v>12.587883000000001</v>
       </c>
       <c r="AJ22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AK22" s="5">
         <f>AVERAGE(F22,M22,T22,AA22,AH22)</f>
         <v>10.6247577</v>
       </c>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
+      <c r="AM22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="5">
+        <f>AVERAGE(T22,AA22,AH22)</f>
+        <v>11.456890250000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
         <v>0.94886999999999999</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>1.2328589999999999</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0.54490099999999997</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>1.017347</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <f>AVERAGE(B23:E23)</f>
         <v>0.93599424999999992</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="G23" s="1"/>
+      <c r="H23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
         <v>0.97764200000000001</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>1.3509389999999999</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>0.53093900000000005</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>0.68216900000000003</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <f>AVERAGE(I23:L23)</f>
         <v>0.88542224999999997</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P23" s="4">
+      <c r="O23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="3">
         <v>1.3846830000000001</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>0.97131299999999998</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="3">
         <v>0.85670000000000002</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="3">
         <v>0.76515599999999995</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="3">
         <f>AVERAGE(P23:S23)</f>
         <v>0.9944630000000001</v>
       </c>
-      <c r="V23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W23" s="4">
+      <c r="V23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="3">
         <v>1.317126</v>
       </c>
-      <c r="X23" s="4">
+      <c r="X23" s="3">
         <v>0.99446299999999999</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Y23" s="3">
         <v>1.3216380000000001</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="Z23" s="3">
         <v>0.85162700000000002</v>
       </c>
-      <c r="AA23" s="4">
-        <f t="shared" ref="AA23:AA24" si="8">AVERAGE(W23:Z23)</f>
+      <c r="AA23" s="3">
+        <f t="shared" ref="AA23:AA24" si="11">AVERAGE(W23:Z23)</f>
         <v>1.1212135000000001</v>
       </c>
-      <c r="AC23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD23" s="4">
+      <c r="AC23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="3">
         <v>1.4259729999999999</v>
       </c>
-      <c r="AE23" s="4">
+      <c r="AE23" s="3">
         <v>1.33117</v>
       </c>
-      <c r="AF23" s="4">
+      <c r="AF23" s="3">
         <v>1.153314</v>
       </c>
-      <c r="AG23" s="4">
+      <c r="AG23" s="3">
         <v>0.97999000000000003</v>
       </c>
-      <c r="AH23" s="4">
-        <f t="shared" ref="AH23:AH24" si="9">AVERAGE(AD23:AG23)</f>
+      <c r="AH23" s="3">
+        <f t="shared" ref="AH23:AH24" si="12">AVERAGE(AD23:AG23)</f>
         <v>1.22261175</v>
       </c>
       <c r="AJ23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AK23" s="2">
-        <f t="shared" ref="AK23:AK24" si="10">AVERAGE(F23,M23,T23,AA23,AH23)</f>
+      <c r="AK23" s="5">
+        <f t="shared" ref="AK23:AK24" si="13">AVERAGE(F23,M23,T23,AA23,AH23)</f>
         <v>1.0319409499999999</v>
       </c>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="8"/>
-      <c r="AP23" s="8"/>
+      <c r="AM23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="5">
+        <f t="shared" ref="AN23:AN24" si="14">AVERAGE(T23,AA23,AH23)</f>
+        <v>1.1127627500000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3">
         <v>3.6795059999999999</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>4.7807510000000004</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>2.113003</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>3.9450430000000001</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" ref="F24" si="11">AVERAGE(B24:E24)</f>
+      <c r="F24" s="3">
+        <f t="shared" ref="F24" si="15">AVERAGE(B24:E24)</f>
         <v>3.6295757500000003</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="G24" s="1"/>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
         <v>3.791077</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>5.2386400000000002</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>2.0588630000000001</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>2.6453000000000002</v>
       </c>
-      <c r="M24" s="4">
-        <f t="shared" ref="M24" si="12">AVERAGE(I24:L24)</f>
+      <c r="M24" s="3">
+        <f t="shared" ref="M24" si="16">AVERAGE(I24:L24)</f>
         <v>3.4334700000000002</v>
       </c>
-      <c r="O24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P24" s="4">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
         <v>5.3694920000000002</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>3.7665350000000002</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="3">
         <v>3.322092</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="3">
         <v>2.9671029999999998</v>
       </c>
-      <c r="T24" s="4">
-        <f t="shared" ref="T24" si="13">AVERAGE(P24:S24)</f>
+      <c r="T24" s="3">
+        <f t="shared" ref="T24" si="17">AVERAGE(P24:S24)</f>
         <v>3.8563054999999999</v>
       </c>
-      <c r="V24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W24" s="4">
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="3">
         <v>5.1075210000000002</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X24" s="3">
         <v>3.8563040000000002</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Y24" s="3">
         <v>5.1250169999999997</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="Z24" s="3">
         <v>3.3024170000000002</v>
       </c>
-      <c r="AA24" s="4">
-        <f t="shared" si="8"/>
+      <c r="AA24" s="3">
+        <f t="shared" si="11"/>
         <v>4.3478147499999995</v>
       </c>
-      <c r="AC24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="4">
+      <c r="AC24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD24" s="3">
         <v>5.5296029999999998</v>
       </c>
-      <c r="AE24" s="4">
+      <c r="AE24" s="3">
         <v>5.1619789999999997</v>
       </c>
-      <c r="AF24" s="4">
+      <c r="AF24" s="3">
         <v>4.4722939999999998</v>
       </c>
-      <c r="AG24" s="4">
+      <c r="AG24" s="3">
         <v>3.8001819999999999</v>
       </c>
-      <c r="AH24" s="4">
-        <f t="shared" si="9"/>
+      <c r="AH24" s="3">
+        <f t="shared" si="12"/>
         <v>4.7410145000000004</v>
       </c>
-      <c r="AJ24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK24" s="2">
-        <f t="shared" si="10"/>
+      <c r="AJ24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK24" s="5">
+        <f t="shared" si="13"/>
         <v>4.0016361000000007</v>
       </c>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
+      <c r="AM24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN24" s="5">
+        <f t="shared" si="14"/>
+        <v>4.3150449166666665</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2582,63 +2616,499 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
-      <c r="AP25" s="8"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AL26" s="8"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="8"/>
-      <c r="AO26" s="8"/>
-      <c r="AP26" s="8"/>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AJ26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK26" s="13"/>
+      <c r="AM26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN26" s="13"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8"/>
-      <c r="AP27" s="8"/>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>700</v>
+      </c>
+      <c r="C27" s="3">
+        <v>750</v>
+      </c>
+      <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>850</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>750</v>
+      </c>
+      <c r="K27" s="3">
+        <v>800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>850</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>750</v>
+      </c>
+      <c r="R27" s="3">
+        <v>800</v>
+      </c>
+      <c r="S27" s="3">
+        <v>850</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3">
+        <v>700</v>
+      </c>
+      <c r="X27" s="3">
+        <v>750</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>850</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>750</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>800</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>850</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="8"/>
-      <c r="AO28" s="8"/>
-      <c r="AP28" s="8"/>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7.2653179999999997</v>
+      </c>
+      <c r="C28" s="7">
+        <v>8.9093490000000006</v>
+      </c>
+      <c r="D28" s="7">
+        <v>7.33575</v>
+      </c>
+      <c r="E28" s="3">
+        <v>7.9946190000000001</v>
+      </c>
+      <c r="F28" s="3">
+        <f>AVERAGE(B28:E28)</f>
+        <v>7.8762590000000001</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>8.0696569999999994</v>
+      </c>
+      <c r="J28" s="7">
+        <v>11.253043</v>
+      </c>
+      <c r="K28" s="7">
+        <v>7.4861940000000002</v>
+      </c>
+      <c r="L28" s="3">
+        <v>7.7040389999999999</v>
+      </c>
+      <c r="M28" s="3">
+        <f>AVERAGE(I28:L28)</f>
+        <v>8.6282332499999992</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="7">
+        <v>6.746848</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>4.4022990000000002</v>
+      </c>
+      <c r="R28" s="7">
+        <v>9.5712820000000001</v>
+      </c>
+      <c r="S28" s="3">
+        <v>7.0621499999999999</v>
+      </c>
+      <c r="T28" s="3">
+        <f>AVERAGE(P28:S28)</f>
+        <v>6.9456447499999996</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="7">
+        <v>2.3595679999999999</v>
+      </c>
+      <c r="X28" s="7">
+        <v>7.5318560000000003</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>9.2585770000000007</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>7.1116970000000004</v>
+      </c>
+      <c r="AA28" s="3">
+        <f>AVERAGE(W28:Z28)</f>
+        <v>6.5654245000000007</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="7">
+        <v>6.8531839999999997</v>
+      </c>
+      <c r="AE28" s="7">
+        <v>8.3493209999999998</v>
+      </c>
+      <c r="AF28" s="7">
+        <v>11.123263</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>5.1712230000000003</v>
+      </c>
+      <c r="AH28" s="3">
+        <f>AVERAGE(AD28:AG28)</f>
+        <v>7.8742477499999994</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="5">
+        <f>AVERAGE(F28,M28,T28,AA28,AH28)</f>
+        <v>7.5779618499999994</v>
+      </c>
+      <c r="AM28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="5">
+        <f>AVERAGE(T28,AA28,AH28)</f>
+        <v>7.1284390000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AL29" s="8"/>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="8"/>
-      <c r="AO29" s="8"/>
-      <c r="AP29" s="8"/>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.94102600000000003</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1.153966</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.95014900000000002</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7.9946190000000001</v>
+      </c>
+      <c r="F29" s="3">
+        <f>AVERAGE(B29:E29)</f>
+        <v>2.7599400000000003</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1.0452060000000001</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1.4575279999999999</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.96963500000000002</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.99785000000000001</v>
+      </c>
+      <c r="M29" s="3">
+        <f>AVERAGE(I29:L29)</f>
+        <v>1.11755475</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0.87387199999999998</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0.57019900000000001</v>
+      </c>
+      <c r="R29" s="7">
+        <v>1.2397009999999999</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.91471100000000005</v>
+      </c>
+      <c r="T29" s="3">
+        <f>AVERAGE(P29:S29)</f>
+        <v>0.89962075000000008</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="7">
+        <v>0.305618</v>
+      </c>
+      <c r="X29" s="7">
+        <v>0.975549</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>1.1991989999999999</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0.92112899999999998</v>
+      </c>
+      <c r="AA29" s="3">
+        <f t="shared" ref="AA29:AA30" si="18">AVERAGE(W29:Z29)</f>
+        <v>0.85037375000000004</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="7">
+        <v>0.88764500000000002</v>
+      </c>
+      <c r="AE29" s="7">
+        <v>1.081429</v>
+      </c>
+      <c r="AF29" s="7">
+        <v>1.4407190000000001</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0.66979200000000005</v>
+      </c>
+      <c r="AH29" s="3">
+        <f>AVERAGE(AD29:AG29)</f>
+        <v>1.0198962499999999</v>
+      </c>
+      <c r="AJ29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="5">
+        <f t="shared" ref="AK29:AK30" si="19">AVERAGE(F29,M29,T29,AA29,AH29)</f>
+        <v>1.3294771000000001</v>
+      </c>
+      <c r="AM29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="5">
+        <f t="shared" ref="AN29:AN30" si="20">AVERAGE(T29,AA29,AH29)</f>
+        <v>0.92329691666666669</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AL30" s="8"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="8"/>
-      <c r="AO30" s="8"/>
-      <c r="AP30" s="8"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AL31" s="8"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="8"/>
-      <c r="AO31" s="8"/>
-      <c r="AP31" s="8"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AL32" s="8"/>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="8"/>
-      <c r="AO32" s="8"/>
-      <c r="AP32" s="8"/>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3.6490879999999999</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4.4748210000000004</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3.6844640000000002</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.0153879999999997</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" ref="F30" si="21">AVERAGE(B30:E30)</f>
+        <v>3.9559402500000003</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4.0530759999999999</v>
+      </c>
+      <c r="J30" s="7">
+        <v>5.6519680000000001</v>
+      </c>
+      <c r="K30" s="7">
+        <v>3.7600259999999999</v>
+      </c>
+      <c r="L30" s="3">
+        <v>3.8694410000000001</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" ref="M30" si="22">AVERAGE(I30:L30)</f>
+        <v>4.3336277499999998</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" s="7">
+        <v>3.3886810000000001</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>2.2111040000000002</v>
+      </c>
+      <c r="R30" s="7">
+        <v>4.8072850000000003</v>
+      </c>
+      <c r="S30" s="3">
+        <v>3.5470449999999998</v>
+      </c>
+      <c r="T30" s="3">
+        <f t="shared" ref="T30" si="23">AVERAGE(P30:S30)</f>
+        <v>3.4885287500000004</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W30" s="7">
+        <v>1.18512</v>
+      </c>
+      <c r="X30" s="7">
+        <v>3.7829600000000001</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>4.6502249999999998</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>3.57193</v>
+      </c>
+      <c r="AA30" s="3">
+        <f t="shared" si="18"/>
+        <v>3.2975587499999999</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD30" s="7">
+        <v>3.4420890000000002</v>
+      </c>
+      <c r="AE30" s="7">
+        <v>4.1935409999999997</v>
+      </c>
+      <c r="AF30" s="7">
+        <v>5.5867849999999999</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>2.597305</v>
+      </c>
+      <c r="AH30" s="3">
+        <f t="shared" ref="AH30" si="24">AVERAGE(AD30:AG30)</f>
+        <v>3.9549300000000001</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK30" s="5">
+        <f t="shared" si="19"/>
+        <v>3.8061171000000003</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN30" s="5">
+        <f t="shared" si="20"/>
+        <v>3.5803391666666671</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="37">
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="AD26:AH26"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="AJ1:AK1"/>
@@ -2646,6 +3116,8 @@
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AJ14:AK14"/>
     <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P20:T20"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B14:F14"/>
@@ -2662,8 +3134,6 @@
     <mergeCell ref="W20:AA20"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P20:T20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
